--- a/заказы/статистика филиалы/2023/11,23/02,11,23 ЗПФ/дв 02,11,23 лгрсч зпф от филиала.xlsx
+++ b/заказы/статистика филиалы/2023/11,23/02,11,23 ЗПФ/дв 02,11,23 лгрсч зпф от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\02,11,23 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\11,23\02,11,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4B4129-C73D-45D7-AC2B-E2517E9B2A32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DA8999-16AA-4075-B5B8-8C49BAA3A4EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="337" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$AA$49</definedName>
@@ -285,10 +286,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -3230,6 +3235,401 @@
             <v>БОНУС_Пельмени Бульмени со сливочным маслом Горячая штучка 0,9 кг  ПОКОМ</v>
           </cell>
           <cell r="B41" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="TDSheet"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Период: 02.11.2023 - 09.11.2023</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Номенклатура</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>Ед. изм.</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Номенклатура</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>Ед. изм.</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Готовые чебупели острые с мясом Горячая штучка 0,3 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Готовые чебупели с ветчиной и сыром Горячая штучка 0,3кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Готовые чебупели с мясом ТМ Горячая штучка Без свинины 0,3 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Готовые чебупели сочные с мясом ТМ Горячая штучка  0,3кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Готовые чебуреки с мясом ТМ Горячая штучка 0,09 кг флоу-пак ПОКОМ</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Жар-ладушки с клубникой и вишней. Жареные с начинкой.ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Жар-ладушки с яблоком и грушей. Изделия хлебобулочные жареные с начинкой зам  ПОКОМ</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Круггетсы с сырным соусом ТМ Горячая штучка 0,25 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Круггетсы сочные ТМ Горячая штучка ТС Круггетсы 0,25 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Мини-сосиски в тесте "Фрайпики" 1,8кг ВЕС,  ПОКОМ</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Мини-сосиски в тесте "Фрайпики" 3,7кг ВЕС,  ПОКОМ</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Мини-сосиски в тесте "Фрайпики" 3,7кг ВЕС, ТМ Зареченские  ПОКОМ</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Наггетсы из печи 0,25кг ТМ Вязанка ТС Няняггетсы Сливушки замор.  ПОКОМ</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Наггетсы Нагетосы Сочная курочка со сладкой паприкой ТМ Горячая штучка ф/в 0,25 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Наггетсы Нагетосы Сочная курочка ТМ Горячая штучка 0,25 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Наггетсы с индейкой 0,25кг ТМ Вязанка ТС Няняггетсы Сливушки НД2 замор.  ПОКОМ</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Наггетсы хрустящие п/ф ВЕС ПОКОМ</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Пельмени Бигбули с мясом, Горячая штучка 0,9кг  ПОКОМ</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Пельмени Бигбули со слив.маслом 0,9 кг   Поком</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Пельмени Бигбули со сливочным маслом ТМ Горячая штучка ТС Бигбули ГШ флоу-пак сфера 0,43 УВС.  ПОКОМ</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Пельмени Бугбули со сливочным маслом ТМ Горячая штучка БУЛЬМЕНИ 0,43 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Пельмени Бульмени с говядиной и свининой Горячая шт. 0,9 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Пельмени Бульмени с говядиной и свининой Горячая штучка 0,43  ПОКОМ</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Пельмени Бульмени с говядиной и свининой Наваристые Горячая штучка ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Пельмени Бульмени со сливочным маслом Горячая штучка 0,9 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>Пельмени Бульмени со сливочным маслом ТМ Горячая шт. 0,43 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Пельмени Мясорубские ТМ Стародворье фоу-пак равиоли 0,7 кг.  Поком</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>Пельмени отборные  с говядиной и свининой 0,43кг ушко  Поком</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>Пельмени Отборные из свинины и говядины 0,9 кг ТМ Стародворье ТС Медвежье ушко  ПОКОМ</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Пельмени отборные с говядиной 0,43кг Поком</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>Пельмени Отборные с говядиной 0,9 кг НОВА ТМ Стародворье ТС Медвежье ушко  ПОКОМ</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>Пельмени С говядиной и свининой, ВЕС, ТМ Славница сфера пуговки  ПОКОМ</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>Пельмени Сочные стародв. сфера 0,43кг  Поком</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>Пельмени Сочные сфера 0,9 кг ТМ Стародворье ПОКОМ</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>Хотстеры ТМ Горячая штучка ТС Хотстеры 0,25 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>Хрустящие крылышки. В панировке куриные жареные.ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>Чебупай сочное яблоко ТМ Горячая штучка ТС Чебупай 0,2 кг УВС.  зам  ПОКОМ</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>Чебупай спелая вишня ТМ Горячая штучка ТС Чебупай 0,2 кг УВС. зам  ПОКОМ</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>Чебупицца курочка по-итальянски Горячая штучка 0,25 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>Чебупицца Пепперони ТМ Горячая штучка ТС Чебупицца 0.25кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>Чебуреки Мясные вес 2,7 кг Кулинарные изделия мясосодержащие рубленые в тесте жарен  ПОКОМ</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>Чебуреки сочные, ВЕС, куриные жарен. зам  ПОКОМ</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>Чебуречище горячая штучка 0,14кг Поком</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>БОНУС_Готовые чебупели сочные с мясом ТМ Горячая штучка  0,3кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>БОНУС_Пельмени Бульмени со сливочным маслом Горячая штучка 0,9 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B50" t="str">
             <v>шт</v>
           </cell>
         </row>
@@ -3564,11 +3964,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AA49"/>
+  <dimension ref="A1:AB49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB18" sqref="AB18"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -3596,15 +3996,15 @@
     <col min="27" max="16384" width="10.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:27" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -3677,7 +4077,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -3726,7 +4126,7 @@
       <c r="Z4" s="14"/>
       <c r="AA4" s="10"/>
     </row>
-    <row r="5" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3805,7 +4205,7 @@
         <v>2057.84</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -3877,8 +4277,12 @@
         <f>Z6*Y6*H6</f>
         <v>0</v>
       </c>
+      <c r="AB6" s="2" t="str">
+        <f>VLOOKUP(A6,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -3948,15 +4352,19 @@
         <v>12</v>
       </c>
       <c r="Z7" s="20">
-        <f t="shared" ref="Z7:Z49" si="8">O7/Y7</f>
+        <f t="shared" ref="Z7:Z47" si="8">O7/Y7</f>
         <v>0</v>
       </c>
       <c r="AA7" s="2">
         <f t="shared" ref="AA7:AA49" si="9">Z7*Y7*H7</f>
         <v>0</v>
       </c>
+      <c r="AB7" s="2" t="str">
+        <f>VLOOKUP(A7,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
@@ -4024,8 +4432,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="AB8" s="2" t="str">
+        <f>VLOOKUP(A8,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -4104,8 +4516,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="AB9" s="2" t="str">
+        <f>VLOOKUP(A9,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
@@ -4177,8 +4593,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="AB10" s="2" t="str">
+        <f>VLOOKUP(A10,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>68</v>
       </c>
@@ -4245,8 +4665,12 @@
         <f t="shared" si="9"/>
         <v>99.9</v>
       </c>
+      <c r="AB11" s="2" t="str">
+        <f>VLOOKUP(A11,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>69</v>
       </c>
@@ -4313,8 +4737,12 @@
         <f t="shared" si="9"/>
         <v>99.9</v>
       </c>
+      <c r="AB12" s="2" t="str">
+        <f>VLOOKUP(A12,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
@@ -4384,8 +4812,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="AB13" s="2" t="str">
+        <f>VLOOKUP(A13,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
@@ -4455,8 +4887,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="AB14" s="2" t="str">
+        <f>VLOOKUP(A14,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>70</v>
       </c>
@@ -4522,8 +4958,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="AB15" s="2" t="str">
+        <f>VLOOKUP(A15,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>71</v>
       </c>
@@ -4589,8 +5029,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="AB16" s="2" t="str">
+        <f>VLOOKUP(A16,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="17" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
@@ -4660,8 +5104,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="AB17" s="2" t="str">
+        <f>VLOOKUP(A17,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="18" spans="1:27" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
@@ -4726,8 +5174,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="AB18" s="2" t="str">
+        <f>VLOOKUP(A18,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="19" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>20</v>
       </c>
@@ -4804,8 +5256,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="AB19" s="2" t="str">
+        <f>VLOOKUP(A19,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="20" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
@@ -4879,8 +5335,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="AB20" s="2" t="str">
+        <f>VLOOKUP(A20,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="21" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>22</v>
       </c>
@@ -4955,8 +5415,12 @@
         <f t="shared" si="9"/>
         <v>96</v>
       </c>
+      <c r="AB21" s="2" t="str">
+        <f>VLOOKUP(A21,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="22" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>24</v>
       </c>
@@ -5029,8 +5493,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="AB22" s="2" t="str">
+        <f>VLOOKUP(A22,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="23" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>25</v>
       </c>
@@ -5107,8 +5575,12 @@
         <f t="shared" si="9"/>
         <v>316.8</v>
       </c>
+      <c r="AB23" s="2" t="str">
+        <f>VLOOKUP(A23,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="24" spans="1:27" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>26</v>
       </c>
@@ -5177,8 +5649,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="AB24" s="2" t="str">
+        <f>VLOOKUP(A24,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="25" spans="1:27" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>27</v>
       </c>
@@ -5249,8 +5725,12 @@
         <f t="shared" si="9"/>
         <v>20.64</v>
       </c>
+      <c r="AB25" s="2" t="str">
+        <f>VLOOKUP(A25,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="26" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>28</v>
       </c>
@@ -5330,8 +5810,12 @@
         <f t="shared" si="9"/>
         <v>72</v>
       </c>
+      <c r="AB26" s="2" t="str">
+        <f>VLOOKUP(A26,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="27" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>29</v>
       </c>
@@ -5405,8 +5889,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="AB27" s="2" t="str">
+        <f>VLOOKUP(A27,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="28" spans="1:27" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>30</v>
       </c>
@@ -5480,8 +5968,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="AB28" s="2" t="str">
+        <f>VLOOKUP(A28,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="29" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>31</v>
       </c>
@@ -5561,8 +6053,12 @@
         <f t="shared" si="9"/>
         <v>180</v>
       </c>
+      <c r="AB29" s="2" t="str">
+        <f>VLOOKUP(A29,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="30" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>32</v>
       </c>
@@ -5636,8 +6132,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="AB30" s="2" t="str">
+        <f>VLOOKUP(A30,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="31" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>33</v>
       </c>
@@ -5714,8 +6214,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="AB31" s="2" t="str">
+        <f>VLOOKUP(A31,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="32" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>34</v>
       </c>
@@ -5783,8 +6287,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="AB32" s="2" t="str">
+        <f>VLOOKUP(A32,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="33" spans="1:27" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>35</v>
       </c>
@@ -5861,8 +6369,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="AB33" s="2" t="str">
+        <f>VLOOKUP(A33,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="34" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>36</v>
       </c>
@@ -5930,8 +6442,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="AB34" s="2" t="str">
+        <f>VLOOKUP(A34,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="35" spans="1:27" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>37</v>
       </c>
@@ -6002,8 +6518,12 @@
         <f t="shared" si="9"/>
         <v>28.8</v>
       </c>
+      <c r="AB35" s="2" t="str">
+        <f>VLOOKUP(A35,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="36" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>38</v>
       </c>
@@ -6077,8 +6597,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="AB36" s="2" t="str">
+        <f>VLOOKUP(A36,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="37" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>39</v>
       </c>
@@ -6144,8 +6668,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="AB37" s="2" t="str">
+        <f>VLOOKUP(A37,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="38" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>40</v>
       </c>
@@ -6215,8 +6743,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="AB38" s="2" t="str">
+        <f>VLOOKUP(A38,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="39" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>41</v>
       </c>
@@ -6286,8 +6818,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="AB39" s="2" t="str">
+        <f>VLOOKUP(A39,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="40" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>42</v>
       </c>
@@ -6358,8 +6894,12 @@
         <f t="shared" si="9"/>
         <v>50.4</v>
       </c>
+      <c r="AB40" s="2" t="str">
+        <f>VLOOKUP(A40,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="41" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>43</v>
       </c>
@@ -6436,8 +6976,12 @@
         <f t="shared" si="9"/>
         <v>39.6</v>
       </c>
+      <c r="AB41" s="2" t="str">
+        <f>VLOOKUP(A41,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="42" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>44</v>
       </c>
@@ -6514,8 +7058,12 @@
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
+      <c r="AB42" s="2" t="str">
+        <f>VLOOKUP(A42,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="43" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>45</v>
       </c>
@@ -6589,8 +7137,12 @@
         <f t="shared" si="9"/>
         <v>18</v>
       </c>
+      <c r="AB43" s="2" t="str">
+        <f>VLOOKUP(A43,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="44" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>46</v>
       </c>
@@ -6664,8 +7216,12 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
+      <c r="AB44" s="2" t="str">
+        <f>VLOOKUP(A44,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="45" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>72</v>
       </c>
@@ -6732,8 +7288,12 @@
         <f t="shared" si="9"/>
         <v>199.8</v>
       </c>
+      <c r="AB45" s="2" t="str">
+        <f>VLOOKUP(A45,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="46" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>73</v>
       </c>
@@ -6801,8 +7361,12 @@
         <f t="shared" si="9"/>
         <v>800</v>
       </c>
+      <c r="AB46" s="2" t="str">
+        <f>VLOOKUP(A46,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="47" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>47</v>
       </c>
@@ -6872,8 +7436,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="AB47" s="2" t="str">
+        <f>VLOOKUP(A47,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="48" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A48" s="24" t="s">
         <v>8</v>
       </c>
@@ -6940,8 +7508,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="AB48" s="2" t="str">
+        <f>VLOOKUP(A48,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="49" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
         <v>10</v>
       </c>
@@ -7007,6 +7579,10 @@
       <c r="AA49" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
+      </c>
+      <c r="AB49" s="2" t="str">
+        <f>VLOOKUP(A49,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
       </c>
     </row>
   </sheetData>
